--- a/exercicios js/Trabalho/Análise dos Dados.xlsx
+++ b/exercicios js/Trabalho/Análise dos Dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Documents\FATEC - 3º Semestre\Estrutura-de-Dados\exercicios js\Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1147B945-6911-4955-8D71-2CE534E0056B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7A39D0-858C-492E-8154-D47E89EF88D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0FAD55A5-668D-45F5-B5F5-839C1CA74DBF}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
-  <si>
-    <t>BubbleSort</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="69">
   <si>
     <t>Métodos de Ordenação</t>
   </si>
@@ -53,125 +50,212 @@
     <t>Vetor Desordenado</t>
   </si>
   <si>
-    <t>Seleção Direta</t>
-  </si>
-  <si>
-    <t>Inserção Direta</t>
-  </si>
-  <si>
     <t>Tipo Vetor</t>
   </si>
   <si>
-    <t>0.785ms</t>
-  </si>
-  <si>
-    <t>1.534ms</t>
-  </si>
-  <si>
-    <t>0.441ms</t>
-  </si>
-  <si>
-    <t>0.46ms</t>
-  </si>
-  <si>
-    <t>1.671ms</t>
-  </si>
-  <si>
-    <t>0.27ms</t>
-  </si>
-  <si>
-    <t>0.609ms</t>
-  </si>
-  <si>
-    <t>1.76ms</t>
-  </si>
-  <si>
-    <t>0.408ms</t>
-  </si>
-  <si>
-    <t>Tempo de Ordenação - Teste 1</t>
-  </si>
-  <si>
-    <t>Tempo de Ordenação - Teste 2</t>
-  </si>
-  <si>
-    <t>Tempo de Ordenação - Teste 3</t>
-  </si>
-  <si>
-    <t>0.79ms</t>
-  </si>
-  <si>
-    <t>1.347ms</t>
-  </si>
-  <si>
-    <t>0.377ms</t>
-  </si>
-  <si>
-    <t> 0.468ms</t>
-  </si>
-  <si>
-    <t>1.678ms</t>
-  </si>
-  <si>
-    <t>0.266ms</t>
-  </si>
-  <si>
-    <t>0.596ms</t>
-  </si>
-  <si>
-    <t>2.081ms</t>
-  </si>
-  <si>
-    <t>0.558ms</t>
-  </si>
-  <si>
-    <t>0.904ms</t>
-  </si>
-  <si>
-    <t>1.986ms</t>
-  </si>
-  <si>
-    <t>0.379ms</t>
-  </si>
-  <si>
-    <t> 0.456ms</t>
-  </si>
-  <si>
-    <t>1.556ms</t>
-  </si>
-  <si>
-    <t>0.52ms</t>
-  </si>
-  <si>
-    <t>0.892ms</t>
-  </si>
-  <si>
-    <t>1.435ms</t>
+    <t>BubbleSort 100</t>
+  </si>
+  <si>
+    <t>BubbleSort 1.000</t>
+  </si>
+  <si>
+    <t>BubbleSort 10.000</t>
+  </si>
+  <si>
+    <t>BubbleSort 100.000</t>
+  </si>
+  <si>
+    <t>Seleção Direta 100</t>
+  </si>
+  <si>
+    <t>Seleção Direta  1.000</t>
+  </si>
+  <si>
+    <t>Seleção Direta  10.000</t>
+  </si>
+  <si>
+    <t>Seleção Direta  100.000</t>
+  </si>
+  <si>
+    <t>Inserção Direta 100</t>
+  </si>
+  <si>
+    <t>Inserção Direta 1.000</t>
+  </si>
+  <si>
+    <t>Inserção Direta 10.000</t>
+  </si>
+  <si>
+    <t>Inserção Direta 100.000</t>
+  </si>
+  <si>
+    <t>Quicksort 100</t>
+  </si>
+  <si>
+    <t>0.33ms</t>
+  </si>
+  <si>
+    <t>0.221ms</t>
+  </si>
+  <si>
+    <t>0.212ms</t>
+  </si>
+  <si>
+    <t>0.181ms</t>
+  </si>
+  <si>
+    <t>2.429ms</t>
+  </si>
+  <si>
+    <t>0.146ms</t>
+  </si>
+  <si>
+    <t>0.158ms</t>
+  </si>
+  <si>
+    <t>0.545ms</t>
+  </si>
+  <si>
+    <t>0.696ms</t>
+  </si>
+  <si>
+    <t>0.129ms</t>
+  </si>
+  <si>
+    <t>0.127ms</t>
+  </si>
+  <si>
+    <t>0.513ms</t>
+  </si>
+  <si>
+    <t>0.537ms</t>
+  </si>
+  <si>
+    <t>0.841ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.786ms</t>
+  </si>
+  <si>
+    <t>0.809ms</t>
+  </si>
+  <si>
+    <t>0.999ms</t>
+  </si>
+  <si>
+    <t>0.684ms</t>
+  </si>
+  <si>
+    <t>0.677ms</t>
+  </si>
+  <si>
+    <t>0.71ms</t>
+  </si>
+  <si>
+    <t>1.162ms</t>
+  </si>
+  <si>
+    <t>0.707ms</t>
+  </si>
+  <si>
+    <t>0.849ms</t>
+  </si>
+  <si>
+    <t>89.377ms</t>
+  </si>
+  <si>
+    <t>73.621ms</t>
+  </si>
+  <si>
+    <t>66.144ms</t>
+  </si>
+  <si>
+    <t>42.9ms</t>
+  </si>
+  <si>
+    <t>51.197ms</t>
+  </si>
+  <si>
+    <t>52.423ms</t>
+  </si>
+  <si>
+    <t>63.403ms</t>
+  </si>
+  <si>
+    <t>69.305ms</t>
+  </si>
+  <si>
+    <t>62.166ms</t>
+  </si>
+  <si>
+    <t>3.068ms</t>
+  </si>
+  <si>
+    <t>4.337ms</t>
+  </si>
+  <si>
+    <t>3.806ms</t>
+  </si>
+  <si>
+    <t>5.537s</t>
+  </si>
+  <si>
+    <t>5.470s</t>
+  </si>
+  <si>
+    <t>5.724s</t>
+  </si>
+  <si>
+    <t>4.009s</t>
+  </si>
+  <si>
+    <t>3.907s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.064s</t>
+  </si>
+  <si>
+    <t>5.674s</t>
+  </si>
+  <si>
+    <t>5.376s</t>
+  </si>
+  <si>
+    <t>5.627s</t>
+  </si>
+  <si>
+    <t>31.079ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31.228ms</t>
+  </si>
+  <si>
+    <t>31.026ms</t>
+  </si>
+  <si>
+    <t>Quicksort  1.000</t>
+  </si>
+  <si>
+    <t>Quicksort  10.000</t>
+  </si>
+  <si>
+    <t>Quicksort  100.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo de Ordenação </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri "/>
     </font>
     <font>
       <sz val="8"/>
@@ -188,7 +272,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,12 +288,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF81FC24"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66FFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,78 +355,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="39">
     <dxf>
       <fill>
         <patternFill>
@@ -373,63 +422,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -451,6 +444,230 @@
       <fill>
         <patternFill>
           <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80B8EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93E579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80B8EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93E579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80B8EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93E579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80B8EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93E579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80B8EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93E579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80B8EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93E579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80B8EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93E579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80B8EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93E579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80B8EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93E579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80B8EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93E579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80B8EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93E579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -776,19 +993,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FAC9B8-724C-45E6-BC87-DEADEB8FFE67}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="29.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.109375" customWidth="1"/>
     <col min="7" max="7" width="24.33203125" customWidth="1"/>
     <col min="8" max="9" width="9.77734375" customWidth="1"/>
@@ -797,198 +1013,679 @@
     <col min="15" max="15" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1"/>
+      <c r="E1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="12"/>
+      <c r="B39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="12"/>
+      <c r="B43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="12"/>
+      <c r="B44" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="12"/>
+      <c r="B47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="12"/>
+      <c r="B48" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="B50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="12"/>
+      <c r="B51" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="17"/>
-      <c r="B3" s="12" t="s">
+      <c r="C51" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="12"/>
+      <c r="B52" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="17"/>
-      <c r="B4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1">
-      <c r="A6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
+      <c r="C52" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53"/>
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="12"/>
+      <c r="B55" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="17"/>
-      <c r="B7" s="12" t="s">
+      <c r="C55" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="12"/>
+      <c r="B56" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="17"/>
-      <c r="B8" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1">
-      <c r="A10" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="C56" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D57"/>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="12"/>
+      <c r="B59" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="17"/>
-      <c r="B11" s="12" t="s">
+      <c r="C59" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="12"/>
+      <c r="B60" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="17"/>
-      <c r="B12" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="C13" s="8"/>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="10"/>
+      <c r="C60" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D61"/>
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="12"/>
+      <c r="B63" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="12"/>
+      <c r="B64" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A5:E5"/>
+  <mergeCells count="16">
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A58:A60"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B10:B1048576 B6:B8 B1:B4">
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Vetor Ordenado">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B4 B17:B20 B33:B36 B65:B1048576 B49:B52">
+    <cfRule type="containsText" dxfId="38" priority="58" operator="containsText" text="Vetor Desordenado">
+      <formula>NOT(ISERROR(SEARCH("Vetor Desordenado",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="60" operator="containsText" text="Vetor Ordenado">
       <formula>NOT(ISERROR(SEARCH("Vetor Ordenado",B1)))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -998,13 +1695,286 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="Vetor Desordenado">
-      <formula>NOT(ISERROR(SEARCH("Vetor Desordenado",B1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B4 B10:B1048576 B6:B8">
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="Vetor Invertido">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B4 B17:B20 B33:B36 B65:B1048576 B49:B52">
+    <cfRule type="containsText" dxfId="36" priority="57" operator="containsText" text="Vetor Invertido">
       <formula>NOT(ISERROR(SEARCH("Vetor Invertido",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B8">
+    <cfRule type="containsText" dxfId="35" priority="46" operator="containsText" text="Vetor Desordenado">
+      <formula>NOT(ISERROR(SEARCH("Vetor Desordenado",B6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="47" operator="containsText" text="Vetor Ordenado">
+      <formula>NOT(ISERROR(SEARCH("Vetor Ordenado",B6)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B8">
+    <cfRule type="containsText" dxfId="33" priority="45" operator="containsText" text="Vetor Invertido">
+      <formula>NOT(ISERROR(SEARCH("Vetor Invertido",B6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B12">
+    <cfRule type="containsText" dxfId="32" priority="42" operator="containsText" text="Vetor Desordenado">
+      <formula>NOT(ISERROR(SEARCH("Vetor Desordenado",B10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="43" operator="containsText" text="Vetor Ordenado">
+      <formula>NOT(ISERROR(SEARCH("Vetor Ordenado",B10)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B12">
+    <cfRule type="containsText" dxfId="30" priority="41" operator="containsText" text="Vetor Invertido">
+      <formula>NOT(ISERROR(SEARCH("Vetor Invertido",B10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B16">
+    <cfRule type="containsText" dxfId="29" priority="38" operator="containsText" text="Vetor Desordenado">
+      <formula>NOT(ISERROR(SEARCH("Vetor Desordenado",B14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="39" operator="containsText" text="Vetor Ordenado">
+      <formula>NOT(ISERROR(SEARCH("Vetor Ordenado",B14)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B16">
+    <cfRule type="containsText" dxfId="27" priority="37" operator="containsText" text="Vetor Invertido">
+      <formula>NOT(ISERROR(SEARCH("Vetor Invertido",B14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:B24">
+    <cfRule type="containsText" dxfId="26" priority="34" operator="containsText" text="Vetor Desordenado">
+      <formula>NOT(ISERROR(SEARCH("Vetor Desordenado",B22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="35" operator="containsText" text="Vetor Ordenado">
+      <formula>NOT(ISERROR(SEARCH("Vetor Ordenado",B22)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:B24">
+    <cfRule type="containsText" dxfId="24" priority="33" operator="containsText" text="Vetor Invertido">
+      <formula>NOT(ISERROR(SEARCH("Vetor Invertido",B22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:B28">
+    <cfRule type="containsText" dxfId="23" priority="30" operator="containsText" text="Vetor Desordenado">
+      <formula>NOT(ISERROR(SEARCH("Vetor Desordenado",B26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="31" operator="containsText" text="Vetor Ordenado">
+      <formula>NOT(ISERROR(SEARCH("Vetor Ordenado",B26)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:B28">
+    <cfRule type="containsText" dxfId="21" priority="29" operator="containsText" text="Vetor Invertido">
+      <formula>NOT(ISERROR(SEARCH("Vetor Invertido",B26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:B32">
+    <cfRule type="containsText" dxfId="20" priority="26" operator="containsText" text="Vetor Desordenado">
+      <formula>NOT(ISERROR(SEARCH("Vetor Desordenado",B30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="27" operator="containsText" text="Vetor Ordenado">
+      <formula>NOT(ISERROR(SEARCH("Vetor Ordenado",B30)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:B32">
+    <cfRule type="containsText" dxfId="18" priority="25" operator="containsText" text="Vetor Invertido">
+      <formula>NOT(ISERROR(SEARCH("Vetor Invertido",B30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:B40">
+    <cfRule type="containsText" dxfId="17" priority="22" operator="containsText" text="Vetor Desordenado">
+      <formula>NOT(ISERROR(SEARCH("Vetor Desordenado",B38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="23" operator="containsText" text="Vetor Ordenado">
+      <formula>NOT(ISERROR(SEARCH("Vetor Ordenado",B38)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:B40">
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="Vetor Invertido">
+      <formula>NOT(ISERROR(SEARCH("Vetor Invertido",B38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:B44">
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="Vetor Desordenado">
+      <formula>NOT(ISERROR(SEARCH("Vetor Desordenado",B42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="Vetor Ordenado">
+      <formula>NOT(ISERROR(SEARCH("Vetor Ordenado",B42)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:B44">
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="Vetor Invertido">
+      <formula>NOT(ISERROR(SEARCH("Vetor Invertido",B42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:B48">
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Vetor Desordenado">
+      <formula>NOT(ISERROR(SEARCH("Vetor Desordenado",B46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="Vetor Ordenado">
+      <formula>NOT(ISERROR(SEARCH("Vetor Ordenado",B46)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:B48">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="Vetor Invertido">
+      <formula>NOT(ISERROR(SEARCH("Vetor Invertido",B46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:B56">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Vetor Desordenado">
+      <formula>NOT(ISERROR(SEARCH("Vetor Desordenado",B54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Vetor Ordenado">
+      <formula>NOT(ISERROR(SEARCH("Vetor Ordenado",B54)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:B56">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Vetor Invertido">
+      <formula>NOT(ISERROR(SEARCH("Vetor Invertido",B54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58:B60">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Vetor Desordenado">
+      <formula>NOT(ISERROR(SEARCH("Vetor Desordenado",B58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="Vetor Ordenado">
+      <formula>NOT(ISERROR(SEARCH("Vetor Ordenado",B58)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58:B60">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Vetor Invertido">
+      <formula>NOT(ISERROR(SEARCH("Vetor Invertido",B58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:B64">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Vetor Desordenado">
+      <formula>NOT(ISERROR(SEARCH("Vetor Desordenado",B62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Vetor Ordenado">
+      <formula>NOT(ISERROR(SEARCH("Vetor Ordenado",B62)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:B64">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Vetor Invertido">
+      <formula>NOT(ISERROR(SEARCH("Vetor Invertido",B62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
